--- a/boxsite/购物快报.xlsx
+++ b/boxsite/购物快报.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8370" tabRatio="858" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
-    <sheet name="内容收集" sheetId="2" r:id="rId2"/>
-    <sheet name="制作" sheetId="3" r:id="rId3"/>
-    <sheet name="母婴" sheetId="4" r:id="rId4"/>
-    <sheet name="美容护肤" sheetId="5" r:id="rId5"/>
-    <sheet name="箱包" sheetId="6" r:id="rId6"/>
-    <sheet name="鞋" sheetId="7" r:id="rId7"/>
-    <sheet name="数码" sheetId="8" r:id="rId8"/>
-    <sheet name="海淘" sheetId="9" r:id="rId9"/>
-    <sheet name="稀奇古怪" sheetId="10" r:id="rId10"/>
-    <sheet name="健康" sheetId="11" r:id="rId11"/>
-    <sheet name="服饰" sheetId="12" r:id="rId12"/>
-    <sheet name="户外运动" sheetId="13" r:id="rId13"/>
-    <sheet name="礼物" sheetId="14" r:id="rId14"/>
+    <sheet name="项目计划" sheetId="2" r:id="rId2"/>
+    <sheet name="内容收集" sheetId="3" r:id="rId3"/>
+    <sheet name="找内容详细设计" sheetId="4" r:id="rId4"/>
+    <sheet name="制作" sheetId="5" r:id="rId5"/>
+    <sheet name="母婴" sheetId="6" r:id="rId6"/>
+    <sheet name="美容护肤" sheetId="7" r:id="rId7"/>
+    <sheet name="箱包" sheetId="8" r:id="rId8"/>
+    <sheet name="鞋" sheetId="9" r:id="rId9"/>
+    <sheet name="数码" sheetId="10" r:id="rId10"/>
+    <sheet name="海淘" sheetId="11" r:id="rId11"/>
+    <sheet name="稀奇古怪" sheetId="12" r:id="rId12"/>
+    <sheet name="健康" sheetId="13" r:id="rId13"/>
+    <sheet name="服饰" sheetId="14" r:id="rId14"/>
+    <sheet name="户外运动" sheetId="15" r:id="rId15"/>
+    <sheet name="礼物" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -323,6 +325,75 @@
     <t>wxgwjykb</t>
   </si>
   <si>
+    <t>购物领域细分的今日头条</t>
+  </si>
+  <si>
+    <t>里程碑</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>购物知识</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>两个月</t>
+  </si>
+  <si>
+    <t>定技术框架</t>
+  </si>
+  <si>
+    <t>找现有实现引擎</t>
+  </si>
+  <si>
+    <t>真实促销</t>
+  </si>
+  <si>
+    <t>搜罗购物网址</t>
+  </si>
+  <si>
+    <t>baidu技术查找</t>
+  </si>
+  <si>
+    <t>特价试用</t>
+  </si>
+  <si>
+    <t>优化版</t>
+  </si>
+  <si>
+    <t>引擎预跑</t>
+  </si>
+  <si>
+    <t>试推广</t>
+  </si>
+  <si>
+    <t>3个月</t>
+  </si>
+  <si>
+    <t>做公众号</t>
+  </si>
+  <si>
+    <t>从抓取库提取内容</t>
+  </si>
+  <si>
+    <t>对接微信开放API,自动输入内容</t>
+  </si>
+  <si>
+    <t>独立app</t>
+  </si>
+  <si>
+    <t>springweb+redis+zui+jquery</t>
+  </si>
+  <si>
+    <t>执行力</t>
+  </si>
+  <si>
     <t>购物资讯</t>
   </si>
   <si>
@@ -407,19 +478,22 @@
     <t>人工</t>
   </si>
   <si>
+    <t>各种手段找到最好的内容网站，最好的公众号,</t>
+  </si>
+  <si>
+    <t>主题网站列表大全</t>
+  </si>
+  <si>
+    <t>行业关键词</t>
+  </si>
+  <si>
     <t>确定关键词和关键词组合</t>
   </si>
   <si>
-    <t>主题网站列表大全</t>
-  </si>
-  <si>
-    <t>行业关键词</t>
-  </si>
-  <si>
     <t>机器</t>
   </si>
   <si>
-    <t>得到关键词和关键词组合</t>
+    <t>对种子网站进行内容拆词， 得到关键词和关键词组合</t>
   </si>
   <si>
     <t>找网站</t>
@@ -446,7 +520,7 @@
     <t>定义排名</t>
   </si>
   <si>
-    <t>分析原始库网站，得到权重比较高的网站，放入到种子站中</t>
+    <t>人工审核, 分析原始库网站，得到权重比较高的网站，放入到种子站中</t>
   </si>
   <si>
     <t>搜狗排列</t>
@@ -564,6 +638,42 @@
   </si>
   <si>
     <t>根据兴趣图谱进行内容推荐</t>
+  </si>
+  <si>
+    <t>最好的网站</t>
+  </si>
+  <si>
+    <t>网站指数高</t>
+  </si>
+  <si>
+    <t>PR, 日PV，月均PV,等</t>
+  </si>
+  <si>
+    <t>跟关键词符合度高</t>
+  </si>
+  <si>
+    <t>原创度高</t>
+  </si>
+  <si>
+    <t>先机器求数量</t>
+  </si>
+  <si>
+    <t>人工审核求质量</t>
+  </si>
+  <si>
+    <t>最好的微博</t>
+  </si>
+  <si>
+    <t>最好的公众号</t>
+  </si>
+  <si>
+    <t>阅读量</t>
+  </si>
+  <si>
+    <t>点赞量</t>
+  </si>
+  <si>
+    <t>人工审核</t>
   </si>
   <si>
     <t>七条内容</t>
@@ -997,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1125,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1367,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1376,6 +1489,7 @@
     <col min="1" max="1" width="20.6" customWidth="1"/>
     <col min="2" max="2" width="11.5"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="16.2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1682,7 +1796,7 @@
       </c>
     </row>
     <row r="40" spans="6:10">
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>0.1</v>
       </c>
       <c r="G40" t="s">
@@ -1696,7 +1810,7 @@
       </c>
     </row>
     <row r="41" spans="6:9">
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>0.5</v>
       </c>
       <c r="G41" t="s">
@@ -1707,7 +1821,7 @@
       </c>
     </row>
     <row r="42" spans="6:9">
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>0.15</v>
       </c>
       <c r="G42" t="s">
@@ -1727,7 +1841,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>0.1</v>
       </c>
       <c r="G43" t="s">
@@ -1735,7 +1849,7 @@
       </c>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>0.05</v>
       </c>
       <c r="G44" t="s">
@@ -1749,7 +1863,7 @@
       </c>
     </row>
     <row r="45" spans="6:11">
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>0.1</v>
       </c>
       <c r="G45" t="s">
@@ -1822,6 +1936,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1838,7 +2046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1855,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A4:A6"/>
@@ -1868,17 +2076,17 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1905,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -1918,12 +2126,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1936,432 +2144,128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="12:12">
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" t="s">
+      <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L3" t="s">
         <v>102</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="4:4">
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
+      <c r="G4" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" t="s">
+    <row r="5" ht="28.5" spans="1:12">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
+      <c r="G5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
+      <c r="L5" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="J15" t="s">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
-      <c r="C16" t="s">
+    <row r="7" ht="28.5" spans="1:8">
+      <c r="A7" t="s">
         <v>113</v>
       </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="F7" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="10:12">
-      <c r="J20" t="s">
+      <c r="G7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="L20" t="s">
+      <c r="H7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
-      <c r="J21" t="s">
+    <row r="8" spans="6:8">
+      <c r="F8" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" t="s">
+      <c r="H8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="10" spans="13:13">
+      <c r="M10" t="s">
         <v>120</v>
       </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="11" spans="13:13">
+      <c r="M11" t="s">
         <v>120</v>
       </c>
-      <c r="J26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" ht="42.75" spans="1:13">
-      <c r="A27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>127</v>
-      </c>
-      <c r="M27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="N30" t="s">
-        <v>138</v>
-      </c>
-      <c r="O30">
-        <v>5118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-      <c r="O31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" t="s">
-        <v>141</v>
-      </c>
-      <c r="O32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6"/>
-      <c r="N34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:14">
-      <c r="A35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
-      <c r="N35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="M37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="M38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="N39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="6"/>
-      <c r="M41" t="s">
-        <v>158</v>
-      </c>
-      <c r="N41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" t="s">
-        <v>162</v>
-      </c>
-      <c r="J42" t="s">
-        <v>163</v>
-      </c>
-      <c r="N42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>178</v>
+    </row>
+    <row r="12" spans="13:13">
+      <c r="M12" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2374,10 +2278,847 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" ht="42.75" spans="1:11">
+      <c r="A24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" ht="42.75" spans="1:10">
+      <c r="A27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" ht="28.5" spans="1:11">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5" spans="1:11">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="J30" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" spans="1:12">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="32" ht="42.75" spans="1:12">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="L32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:12">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="L33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:12">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="L34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="K35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="J38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="K40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:11">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="K41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="J42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="1:11">
+      <c r="A43" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="K43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="1:11">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" ht="28.5" spans="1:11">
+      <c r="A47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" ht="28.5" spans="1:11">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" ht="28.5" spans="1:11">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" ht="28.5" spans="1:11">
+      <c r="A58" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2388,165 +3129,165 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="O1" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="3:15">
       <c r="C2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="O2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2554,42 +3295,42 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="10:10">
       <c r="J16" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J17" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2597,22 +3338,22 @@
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K31"/>
@@ -2643,45 +3384,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -2691,25 +3432,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2719,22 +3460,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2758,16 +3499,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2792,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D14"/>
@@ -2808,65 +3549,65 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -2881,7 +3622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B9"/>
@@ -2894,15 +3635,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2912,15 +3653,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -2935,7 +3676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2948,140 +3689,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:P36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <cols>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
